--- a/excel-files/Campaign-Marketing(Solver).xlsx
+++ b/excel-files/Campaign-Marketing(Solver).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\anson\Financial-Modelling\business-analytics-excel-coursera\excel-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4FD4620-2CE1-4848-B481-13EA6439AC08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{552D704E-00FB-4E12-9977-17A9285D75C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{4E3B9C10-E5A7-437F-B560-1374186A5AA2}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="13056" xr2:uid="{4E3B9C10-E5A7-437F-B560-1374186A5AA2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -586,7 +586,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="438" row="9">
+  <wetp:taskpane dockstate="right" visibility="0" width="438" row="7">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
 </wetp:taskpanes>
@@ -610,8 +610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35FFC7F5-10F8-43C7-9723-3A1B06EB3FC2}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="116" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="48" zoomScaleNormal="48" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
